--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject20.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject20.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.81141869715087767</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -167,7 +167,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
@@ -314,7 +314,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>0</v>
+        <v>0.83228070129302212</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -326,30 +326,30 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.72721049477301469</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.78603400210250696</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.59966344776371594</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.84147641073279433</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>0.74436432944787334</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="AT2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="0">
         <v>0</v>
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.8036363771773074</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.57070008006184025</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.78033705456683056</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>0</v>
+        <v>0.87273562439358088</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0</v>
+        <v>0.74708452325388208</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.64288684067945057</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.85335361535241927</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.74796795818088646</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.82451270230407603</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>0</v>
+        <v>0.55781762437110105</v>
       </c>
       <c r="AV4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.62833478179923796</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.69545017188524283</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.70042259237232329</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>0</v>
+        <v>0.97325543371643553</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="0">
-        <v>0</v>
+        <v>0.85285772075346999</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1161,25 +1161,25 @@
         <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>0.76067503995300867</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.51440470755970535</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.56395448872080101</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0">
-        <v>0</v>
+        <v>0.91499647160225384</v>
       </c>
       <c r="Y6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0</v>
+        <v>0.62143842579057407</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.92965445316844098</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>0</v>
+        <v>0.57379172114291455</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="0">
-        <v>0</v>
+        <v>0.51813292534073319</v>
       </c>
       <c r="BA7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.55660292070398176</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.64207948075393695</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1788,25 +1788,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>0.67383791781733127</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.71533158157179022</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.95214184895496745</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.9247642569851946</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.77817373257446221</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.85329629603597212</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.79549560636415495</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.55330023360290637</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="0">
-        <v>0</v>
+        <v>0.91127357085931071</v>
       </c>
       <c r="AT10" s="0">
         <v>0</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.72714121671508392</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.82290413753519565</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.93362013275440947</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>0</v>
+        <v>0.9926188906461807</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.83415501158449579</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.73204105912723849</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.6602592232692861</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.63184083696823312</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>0</v>
+        <v>0.65651145958828971</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0</v>
+        <v>0.82287423480289057</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.99623185360154487</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.76267432623226727</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.71384192436185812</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>0</v>
+        <v>0.6729578013823605</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="0">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.70655420113841427</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.55082217989354265</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.58922689231556857</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>0</v>
+        <v>0.99735300844635044</v>
       </c>
       <c r="AM15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.69313529409547869</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.98408659895555028</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.8391298287282003</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.66324923968481919</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>0</v>
+        <v>0.59888342618317658</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.70556368150197435</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.95066544018998533</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.54371091109537084</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.69304568139307543</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.81477449996530749</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.92914495920153417</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.99662504051544565</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.6261385460291744</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.9588365168981926</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.58955613409745555</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.67778046667107927</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.88177247810034798</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.86725325226334782</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.72385992267721622</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.80381642507008277</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.98070466437531179</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.83265237282144</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.50225360915285322</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.97702296729724392</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.99557017778433954</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.80249651083115459</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.75402572034145088</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.61989301410379105</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.68561769669565287</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.81125845043955525</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.97682827165999919</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="0">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>0</v>
+        <v>0.62298678499087523</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0</v>
+        <v>0.56520541324489937</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>0</v>
+        <v>0.98677634027451511</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.6983893963839376</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.82719837854134992</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.54493101908884078</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.98103261321475976</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.78800029050474185</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.51430530820141773</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.56810708042923741</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="0">
         <v>0</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AX25" s="0">
-        <v>0</v>
+        <v>0.74980632914757217</v>
       </c>
       <c r="AY25" s="0">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.91533833413724452</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.74817646687877948</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.62817575402105974</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.63530877990200874</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5368,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.95855904472438713</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.91832222191465918</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.67545621474204953</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.71067503136588595</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>0</v>
+        <v>0.95935099857498263</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="0">
         <v>0</v>
@@ -5765,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.51395640461227432</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.73922659801981161</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>1</v>
+        <v>0.59907700619421478</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>0</v>
+        <v>0.79429118888708206</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.90304683500501381</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0</v>
+        <v>0.58174412727131763</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>0</v>
+        <v>0.59273217049351878</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.83826750137477912</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.84495181152185683</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.76578078807674377</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0</v>
+        <v>0.7664468270315612</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>0</v>
+        <v>0.54219522068829762</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.77616355303506368</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.9704683646753689</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.59183035089761926</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="0">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.80010917047233232</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.87480653516682372</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.96516680252661891</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,22 +7019,22 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.84069691114238476</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.98077147783880436</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.77908455182382397</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
-        <v>0</v>
+        <v>0.85649197025872259</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="0">
-        <v>0</v>
+        <v>0.60171195842303304</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7228,25 +7228,25 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.51890423956647358</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.65468765146925056</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.6795750212057412</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>0</v>
+        <v>0.51231869809971731</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>0</v>
+        <v>0.58901440229644497</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="BO35" s="0">
-        <v>0</v>
+        <v>0.85641141449778502</v>
       </c>
       <c r="BP35" s="0">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.85022825024899074</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>0</v>
+        <v>0.99676411110317342</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>0</v>
+        <v>0.90730852294855069</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>0</v>
+        <v>0.57750245290973301</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.80653649693079044</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.78491894334230428</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.59342088061347398</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.94156970814019481</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>0</v>
+        <v>0.65679022615062022</v>
       </c>
     </row>
     <row r="38">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>0</v>
+        <v>0.86811016051423751</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.77680224612210935</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.80066069797922279</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.82192479343089986</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="0">
-        <v>0</v>
+        <v>0.89232561975049673</v>
       </c>
       <c r="BO38" s="0">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>0</v>
+        <v>0.53398560951821161</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.54325791883877139</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>0</v>
+        <v>0.69019539518642259</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.76555961995660582</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.60413421669501832</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="BD39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE39" s="0">
         <v>0</v>
@@ -8168,10 +8168,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.64808228432171944</v>
       </c>
       <c r="D40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.77747661736437546</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.57290024783925286</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>0</v>
+        <v>0.838160941438719</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.60249892301294183</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.87121105760178952</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.60021220881692328</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8900,16 +8900,16 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.75589723875193027</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.79190568666372796</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.61700450950335251</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="AV43" s="0">
-        <v>0</v>
+        <v>0.87400447370153167</v>
       </c>
       <c r="AW43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="0">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
@@ -9109,25 +9109,25 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.50848675033181823</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.76910272789316037</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.84331356640036792</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.81871157541574857</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>0</v>
+        <v>0.62666278990585111</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>0</v>
+        <v>0.97520670135663523</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>0</v>
+        <v>0.948377982036542</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.9913343166452111</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.9793543621826124</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="BL45" s="0">
-        <v>0</v>
+        <v>0.78463753762699784</v>
       </c>
       <c r="BM45" s="0">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.68711369093861174</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.77870173831856271</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.51433463115661016</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9613,13 +9613,13 @@
         <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>0</v>
+        <v>0.56376327330255249</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0</v>
+        <v>0.70075847768704813</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>0.8736229842916704</v>
       </c>
       <c r="N47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="0">
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>0</v>
+        <v>0.52377860823624223</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.84772381236824312</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0</v>
+        <v>0.62164746173456442</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9936,28 +9936,28 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="0">
-        <v>0</v>
+        <v>0.60751544708642435</v>
       </c>
       <c r="AR48" s="0">
-        <v>0</v>
+        <v>0.82873315663735581</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.79402532996455055</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.55161239728135669</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10037,13 +10037,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>1</v>
+        <v>0.890389370307068</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.84337624382863496</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.76625439268613649</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>0</v>
+        <v>0.56321211244576053</v>
       </c>
       <c r="Z50" s="0">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.84554834039346327</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.6231606909336902</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.71429768471566657</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.54312889791631225</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>0.93360129861531183</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10649,10 +10649,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>0</v>
+        <v>0.81037237640020154</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.70876121068532216</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.80756672510486316</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.80896531581559206</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.65383335374914753</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.76638692029300837</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.67832980737008275</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.92376814939686169</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.90678409729045639</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.52661656046893746</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.81775285080038551</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.63494665790441907</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.67719085810407265</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.53270703053591717</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.98276417272664707</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.59837092773583467</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.98589722370779853</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.88911213786640086</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.68472062151171809</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>0</v>
+        <v>0.85509856819773911</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.61854532089560554</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.90394598461962306</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.8399389466000915</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.76877148196975775</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="AH58" s="0">
-        <v>0</v>
+        <v>0.9980435461816024</v>
       </c>
       <c r="AI58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.75452138272592861</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.62278431482037466</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.90239309461569639</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>0</v>
+        <v>0.95582651352106796</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.86289279800021235</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.92976189514736896</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.78287894589644047</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="BM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0</v>
+        <v>0.81924629269305638</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.79466133978990117</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.7147842354025189</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.74308912557713369</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0</v>
+        <v>0.62611580540831913</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.52721240980672923</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.60306177236184211</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.88260623148729023</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.66458755919019707</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.95086203259462865</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.54435016210457476</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.58620124515931527</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0</v>
+        <v>0.8817262584677813</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0</v>
+        <v>0.59601740738770004</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>0</v>
+        <v>0.79083071918448111</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.60398024658450267</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.5981268151773349</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.95711148957232406</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0</v>
+        <v>0.69916638275450715</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>0</v>
+        <v>0.76519878660715546</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0</v>
+        <v>0.7486025665747762</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>0</v>
+        <v>0.58695984553603142</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,10 +13289,10 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.87026542875572532</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.8957884750918258</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.51434061966566746</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="BG65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.77486997763317322</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.58437393822267314</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.55910716743321087</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="0">
-        <v>0</v>
+        <v>0.79717999755790059</v>
       </c>
       <c r="AC66" s="0">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="0">
-        <v>0</v>
+        <v>0.9158831950033498</v>
       </c>
       <c r="AM66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.82361379638281473</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.90882405163919755</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.82195294530689345</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="AI67" s="0">
-        <v>0</v>
+        <v>0.78732810367503592</v>
       </c>
       <c r="AJ67" s="0">
         <v>0</v>
@@ -13916,21 +13916,21 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.62547958478636223</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.7805131773617543</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.99368594228649421</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -14035,10 +14035,10 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK68" s="0">
-        <v>0</v>
+        <v>0.9774447191557456</v>
       </c>
       <c r="AL68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.97533605176405991</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject20.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject20.xlsx
@@ -314,7 +314,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>0.83228070129302212</v>
+        <v>0.8817262584677813</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -326,15 +326,15 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.72721049477301469</v>
+        <v>0.82195294530689345</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.78603400210250696</v>
+        <v>0.99368594228649421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.59966344776371594</v>
+        <v>0.81141869715087767</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -349,7 +349,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.74436432944787334</v>
+        <v>0.76067503995300867</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.8036363771773074</v>
+        <v>0.85335361535241927</v>
       </c>
       <c r="E3" s="0">
-        <v>0.57070008006184025</v>
+        <v>0.62833478179923796</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>0.87273562439358088</v>
+        <v>0.93360129861531183</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.64288684067945057</v>
+        <v>0.84147641073279433</v>
       </c>
       <c r="C4" s="0">
         <v>0.85335361535241927</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>0.55781762437110105</v>
+        <v>0.56376327330255249</v>
       </c>
       <c r="AV4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.62833478179923796</v>
       </c>
       <c r="D5" s="0">
-        <v>0.69545017188524283</v>
+        <v>0.74796795818088646</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.51440470755970535</v>
+        <v>0.82451270230407603</v>
       </c>
       <c r="E6" s="0">
-        <v>0.56395448872080101</v>
+        <v>0.70042259237232329</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0.62143842579057407</v>
+        <v>0.70075847768704813</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.57379172114291455</v>
+        <v>0.95935099857498263</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="0">
-        <v>0.51813292534073319</v>
+        <v>0.81037237640020154</v>
       </c>
       <c r="BA7" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.55660292070398176</v>
+        <v>0.95214184895496745</v>
       </c>
       <c r="J8" s="0">
-        <v>0.64207948075393695</v>
+        <v>0.85329629603597212</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0.67383791781733127</v>
+        <v>0.97325543371643553</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.71533158157179022</v>
+        <v>0.92965445316844098</v>
       </c>
       <c r="H9" s="0">
         <v>0.95214184895496745</v>
@@ -2006,13 +2006,13 @@
         <v>0.85329629603597212</v>
       </c>
       <c r="I10" s="0">
-        <v>0.79549560636415495</v>
+        <v>0.9247642569851946</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.55330023360290637</v>
+        <v>0.82290413753519565</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="0">
-        <v>0.91127357085931071</v>
+        <v>0.97520670135663523</v>
       </c>
       <c r="AT10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.72714121671508392</v>
+        <v>0.77817373257446221</v>
       </c>
       <c r="J11" s="0">
         <v>0.82290413753519565</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.83415501158449579</v>
+        <v>0.93362013275440947</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0.73204105912723849</v>
       </c>
       <c r="N12" s="0">
-        <v>0.6602592232692861</v>
+        <v>0.99623185360154487</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.63184083696823312</v>
+        <v>0.73204105912723849</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>0.65651145958828971</v>
+        <v>0.98677634027451511</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0.82287423480289057</v>
+        <v>0.8736229842916704</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.70655420113841427</v>
+        <v>0.76267432623226727</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.55082217989354265</v>
+        <v>0.98408659895555028</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.58922689231556857</v>
+        <v>0.70556368150197435</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.69313529409547869</v>
+        <v>0.71384192436185812</v>
       </c>
       <c r="O16" s="0">
         <v>0.98408659895555028</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.8391298287282003</v>
+        <v>0.95066544018998533</v>
       </c>
       <c r="R16" s="0">
-        <v>0.66324923968481919</v>
+        <v>0.81477449996530749</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.54371091109537084</v>
+        <v>0.92914495920153417</v>
       </c>
       <c r="S17" s="0">
-        <v>0.69304568139307543</v>
+        <v>0.9588365168981926</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.99662504051544565</v>
       </c>
       <c r="T18" s="0">
-        <v>0.6261385460291744</v>
+        <v>0.86725325226334782</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>0.9588365168981926</v>
       </c>
       <c r="R19" s="0">
-        <v>0.58955613409745555</v>
+        <v>0.99662504051544565</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.67778046667107927</v>
+        <v>0.72385992267721622</v>
       </c>
       <c r="U19" s="0">
         <v>0.88177247810034798</v>
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.83265237282144</v>
+        <v>0.88177247810034798</v>
       </c>
       <c r="T21" s="0">
-        <v>0.50225360915285322</v>
+        <v>0.80381642507008277</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.80249651083115459</v>
+        <v>0.98070466437531179</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.75402572034145088</v>
+        <v>0.81125845043955525</v>
       </c>
       <c r="X22" s="0">
-        <v>0.61989301410379105</v>
+        <v>0.6983893963839376</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.68561769669565287</v>
+        <v>0.97702296729724392</v>
       </c>
       <c r="V23" s="0">
         <v>0.81125845043955525</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.97682827165999919</v>
+        <v>0.98103261321475976</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>0.62298678499087523</v>
+        <v>0.95582651352106796</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0.56520541324489937</v>
+        <v>0.91499647160225384</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0.82719837854134992</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.54493101908884078</v>
+        <v>0.91533833413724452</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0.98103261321475976</v>
       </c>
       <c r="X25" s="0">
-        <v>0.78800029050474185</v>
+        <v>0.82719837854134992</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.51430530820141773</v>
+        <v>0.74817646687877948</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.56810708042923741</v>
+        <v>0.95855904472438713</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.62817575402105974</v>
+        <v>0.91832222191465918</v>
       </c>
       <c r="AB26" s="0">
         <v>0.63530877990200874</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.67545621474204953</v>
+        <v>0.73922659801981161</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.71067503136588595</v>
+        <v>0.90304683500501381</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.51395640461227432</v>
+        <v>0.63530877990200874</v>
       </c>
       <c r="AA28" s="0">
         <v>0.73922659801981161</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>0.59907700619421478</v>
+        <v>0.890389370307068</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>0.79429118888708206</v>
+        <v>0.79717999755790059</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0.58174412727131763</v>
+        <v>0.948377982036542</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>0.59273217049351878</v>
+        <v>0.85509856819773911</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.76578078807674377</v>
+        <v>0.83826750137477912</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0.7664468270315612</v>
+        <v>0.90730852294855069</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>0.54219522068829762</v>
+        <v>0.76519878660715546</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.77616355303506368</v>
+        <v>0.84495181152185683</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.9704683646753689</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.59183035089761926</v>
+        <v>0.84069691114238476</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.80010917047233232</v>
+        <v>0.9704683646753689</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.87480653516682372</v>
+        <v>0.98077147783880436</v>
       </c>
       <c r="AI33" s="0">
         <v>0.96516680252661891</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="0">
-        <v>0.60171195842303304</v>
+        <v>0.9980435461816024</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.51890423956647358</v>
+        <v>0.96516680252661891</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.65468765146925056</v>
+        <v>0.77908455182382397</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,13 +7240,13 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.6795750212057412</v>
+        <v>0.80653649693079044</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>0.51231869809971731</v>
+        <v>0.69019539518642259</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>0.58901440229644497</v>
+        <v>0.59601740738770004</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>0.57750245290973301</v>
+        <v>0.85649197025872259</v>
       </c>
       <c r="AI37" s="0">
         <v>0.80653649693079044</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.78491894334230428</v>
+        <v>0.80066069797922279</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.59342088061347398</v>
+        <v>0.76555961995660582</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0.94156970814019481</v>
+        <v>0.9913343166452111</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>0.65679022615062022</v>
+        <v>0.9774447191557456</v>
       </c>
     </row>
     <row r="38">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>0.86811016051423751</v>
+        <v>0.99735300844635044</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.77680224612210935</v>
+        <v>0.85022825024899074</v>
       </c>
       <c r="AK38" s="0">
         <v>0.80066069797922279</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="0">
-        <v>0.89232561975049673</v>
+        <v>0.9158831950033498</v>
       </c>
       <c r="BO38" s="0">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>0.53398560951821161</v>
+        <v>0.6729578013823605</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0.54325791883877139</v>
+        <v>0.99557017778433954</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0.76555961995660582</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.60413421669501832</v>
+        <v>0.82192479343089986</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0.64808228432171944</v>
+        <v>0.78033705456683056</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.57290024783925286</v>
+        <v>0.75589723875193027</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.60249892301294183</v>
+        <v>0.77747661736437546</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8903,13 +8903,13 @@
         <v>0.75589723875193027</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.79190568666372796</v>
+        <v>0.87121105760178952</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.61700450950335251</v>
+        <v>0.76910272789316037</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.50848675033181823</v>
+        <v>0.60021220881692328</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.76910272789316037</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.84331356640036792</v>
+        <v>0.9793543621826124</v>
       </c>
       <c r="AT44" s="0">
         <v>0.81871157541574857</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>0.62666278990585111</v>
+        <v>0.82873315663735581</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.68711369093861174</v>
+        <v>0.81871157541574857</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.77870173831856271</v>
+        <v>0.84772381236824312</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.51433463115661016</v>
+        <v>0.79402532996455055</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>0.52377860823624223</v>
+        <v>0.59888342618317658</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0.62164746173456442</v>
+        <v>0.81924629269305638</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="0">
-        <v>0.60751544708642435</v>
+        <v>0.87400447370153167</v>
       </c>
       <c r="AR48" s="0">
         <v>0.82873315663735581</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.55161239728135669</v>
+        <v>0.84337624382863496</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.76625439268613649</v>
+        <v>0.84554834039346327</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>0.56321211244576053</v>
+        <v>0.74980632914757217</v>
       </c>
       <c r="Z50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.6231606909336902</v>
+        <v>0.70876121068532216</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.71429768471566657</v>
+        <v>0.80756672510486316</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.54312889791631225</v>
+        <v>0.65383335374914753</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.80896531581559206</v>
+        <v>0.92376814939686169</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.76638692029300837</v>
+        <v>0.90678409729045639</v>
       </c>
       <c r="BC53" s="0">
         <v>0.67832980737008275</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.52661656046893746</v>
+        <v>0.67719085810407265</v>
       </c>
       <c r="BD54" s="0">
         <v>0.81775285080038551</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.63494665790441907</v>
+        <v>0.67832980737008275</v>
       </c>
       <c r="BB55" s="0">
         <v>0.67719085810407265</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.53270703053591717</v>
+        <v>0.98589722370779853</v>
       </c>
       <c r="BE55" s="0">
         <v>0.98276417272664707</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.59837092773583467</v>
+        <v>0.81775285080038551</v>
       </c>
       <c r="BC56" s="0">
         <v>0.98589722370779853</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.88911213786640086</v>
+        <v>0.90394598461962306</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.68472062151171809</v>
+        <v>0.75452138272592861</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.61854532089560554</v>
+        <v>0.98276417272664707</v>
       </c>
       <c r="BD57" s="0">
         <v>0.90394598461962306</v>
@@ -11838,7 +11838,7 @@
         <v>0.8399389466000915</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.76877148196975775</v>
+        <v>0.86289279800021235</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0.75452138272592861</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.62278431482037466</v>
+        <v>0.8399389466000915</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.79466133978990117</v>
+        <v>0.90239309461569639</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.7147842354025189</v>
+        <v>0.92976189514736896</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0.62611580540831913</v>
+        <v>0.9926188906461807</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.52721240980672923</v>
+        <v>0.78287894589644047</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.60306177236184211</v>
+        <v>0.95086203259462865</v>
       </c>
       <c r="BK61" s="0">
         <v>0.88260623148729023</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.66458755919019707</v>
+        <v>0.74308912557713369</v>
       </c>
       <c r="BI62" s="0">
         <v>0.95086203259462865</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.54435016210457476</v>
+        <v>0.5981268151773349</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.58620124515931527</v>
+        <v>0.87026542875572532</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>0.79083071918448111</v>
+        <v>0.838160941438719</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.60398024658450267</v>
+        <v>0.88260623148729023</v>
       </c>
       <c r="BJ63" s="0">
         <v>0.5981268151773349</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0.69916638275450715</v>
+        <v>0.85285772075346999</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0.7486025665747762</v>
+        <v>0.99676411110317342</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>0.58695984553603142</v>
+        <v>0.78463753762699784</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.87026542875572532</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.8957884750918258</v>
+        <v>0.95711148957232406</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.51434061966566746</v>
+        <v>0.82361379638281473</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.77486997763317322</v>
+        <v>0.90882405163919755</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.58437393822267314</v>
+        <v>0.62547958478636223</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0.55910716743321087</v>
+        <v>0.74708452325388208</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="AI67" s="0">
-        <v>0.78732810367503592</v>
+        <v>0.85641141449778502</v>
       </c>
       <c r="AJ67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.7805131773617543</v>
+        <v>0.97533605176405991</v>
       </c>
     </row>
     <row r="68">
